--- a/PxM_PPC_RL/diagnostics/Models.xlsx
+++ b/PxM_PPC_RL/diagnostics/Models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA049B1F-CDF7-4E79-ADC9-614D75DD4105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6C07D-4EDF-4C4C-ABFB-6992BC13F3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -76,116 +76,44 @@
     <t>model_pn0_mn0</t>
   </si>
   <si>
-    <t>model_pn0_mn1</t>
-  </si>
-  <si>
-    <t>model_pn0_mn2</t>
-  </si>
-  <si>
-    <t>model_pn0_mn3</t>
-  </si>
-  <si>
-    <t>model_pn0_mn4</t>
-  </si>
-  <si>
-    <t>model_pn0_mn5</t>
-  </si>
-  <si>
     <t>model_pn1_mn0</t>
   </si>
   <si>
-    <t>model_pn1_mn1</t>
-  </si>
-  <si>
-    <t>model_pn1_mn2</t>
-  </si>
-  <si>
-    <t>model_pn1_mn3</t>
-  </si>
-  <si>
-    <t>model_pn1_mn4</t>
-  </si>
-  <si>
-    <t>model_pn1_mn5</t>
-  </si>
-  <si>
     <t>model_pn2_mn0</t>
   </si>
   <si>
-    <t>model_pn2_mn1</t>
-  </si>
-  <si>
-    <t>model_pn2_mn2</t>
-  </si>
-  <si>
-    <t>model_pn2_mn3</t>
-  </si>
-  <si>
-    <t>model_pn2_mn4</t>
-  </si>
-  <si>
-    <t>model_pn2_mn5</t>
-  </si>
-  <si>
     <t>model_pn3_mn0</t>
   </si>
   <si>
-    <t>model_pn3_mn1</t>
-  </si>
-  <si>
-    <t>model_pn3_mn2</t>
-  </si>
-  <si>
-    <t>model_pn3_mn3</t>
-  </si>
-  <si>
-    <t>model_pn3_mn4</t>
-  </si>
-  <si>
-    <t>model_pn3_mn5</t>
-  </si>
-  <si>
     <t>model_pn4_mn0</t>
   </si>
   <si>
-    <t>model_pn4_mn1</t>
-  </si>
-  <si>
-    <t>model_pn4_mn2</t>
-  </si>
-  <si>
-    <t>model_pn4_mn3</t>
-  </si>
-  <si>
-    <t>model_pn4_mn4</t>
-  </si>
-  <si>
-    <t>model_pn4_mn5</t>
-  </si>
-  <si>
     <t>model_pn5_mn0</t>
   </si>
   <si>
-    <t>model_pn5_mn1</t>
-  </si>
-  <si>
-    <t>model_pn5_mn2</t>
-  </si>
-  <si>
-    <t>model_pn5_mn3</t>
-  </si>
-  <si>
-    <t>model_pn5_mn4</t>
-  </si>
-  <si>
-    <t>model_pn5_mn5</t>
+    <t>model_pn6_mn0</t>
+  </si>
+  <si>
+    <t>model_pn7_mn0</t>
+  </si>
+  <si>
+    <t>model_pn8_mn0</t>
+  </si>
+  <si>
+    <t>model_pn9_mn0</t>
+  </si>
+  <si>
+    <t>model_pn10_mn0</t>
+  </si>
+  <si>
+    <t>[deleted]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +131,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +461,7 @@
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -602,6 +539,25 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0.98197882999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.97730528000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.97722025999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.98224411</v>
+      </c>
+      <c r="H3">
+        <v>0.98033068999999995</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I44" si="0">AVERAGE(D3:H3)</f>
+        <v>0.97981583399999983</v>
+      </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -616,8 +572,27 @@
       <c r="C4">
         <v>0.1</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
+      <c r="D4">
+        <v>0.98641389999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.97676801999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.98183423000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.97782142000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.97934929999999998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.98043737399999986</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -630,8 +605,27 @@
       <c r="C5">
         <v>0.2</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
+      <c r="D5">
+        <v>0.98437960999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.97895244000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.98538970000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.97938225999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.97914445999999999</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.98144969399999993</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -644,8 +638,27 @@
       <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
+      <c r="D6">
+        <v>0.97730183000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.98760161999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.98515260000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.97968133000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.97478993000000003</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.98090546200000017</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -658,8 +671,27 @@
       <c r="C7">
         <v>0.4</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
+      <c r="D7">
+        <v>0.98465502999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.96904301000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.98287201999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.98522460999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.97855135999999998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.98006920599999992</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -672,8 +704,27 @@
       <c r="C8">
         <v>0.5</v>
       </c>
-      <c r="J8" t="s">
-        <v>17</v>
+      <c r="D8">
+        <v>0.97745170999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.98212604000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.98410366000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.98056281999999995</v>
+      </c>
+      <c r="H8">
+        <v>0.97075498000000005</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.97899984200000001</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,13 +732,32 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.97267188999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.98354659</v>
+      </c>
+      <c r="F9">
+        <v>0.98054887999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.98342207000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.98560831000000004</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="1">AVERAGE(D9:H9)</f>
+        <v>0.98115954800000016</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -698,10 +768,29 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.94657190000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.93545255000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.94084506999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.94856171</v>
+      </c>
+      <c r="H10">
+        <v>0.93582352999999996</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.94145095199999995</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -712,10 +801,29 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>0.94792951999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.93689924000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.94272559</v>
+      </c>
+      <c r="G11">
+        <v>0.94187971000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.94378054</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.94264291999999994</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -726,10 +834,29 @@
         <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0.94903212999999997</v>
+      </c>
+      <c r="E12">
+        <v>0.93920086999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.93877633000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.94203360000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.95171718000000005</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.94415202200000015</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -740,10 +867,29 @@
         <v>0.1</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>0.92340191000000005</v>
+      </c>
+      <c r="E13">
+        <v>0.94630325999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.94048419000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.94518488000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.95562932</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.942200712</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -754,9 +900,28 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="J14" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="D14">
+        <v>0.95089398999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.94741609000000004</v>
+      </c>
+      <c r="F14">
+        <v>0.94783203000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.93854588000000005</v>
+      </c>
+      <c r="H14">
+        <v>0.95033215999999998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.94700402999999989</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -765,13 +930,32 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>0.93403820000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.93999493000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.94699246000000004</v>
+      </c>
+      <c r="G15">
+        <v>0.94308910000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.95083812000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.94299056199999998</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -779,13 +963,32 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.94220503</v>
+      </c>
+      <c r="E16">
+        <v>0.94306157999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.94371273</v>
+      </c>
+      <c r="G16">
+        <v>0.95169680000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.93669164000000005</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.94347355600000005</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -796,10 +999,29 @@
         <v>0.2</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.90375850999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.89653954000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.91706162000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.88546057</v>
+      </c>
+      <c r="H17">
+        <v>0.89291690999999995</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.89914742999999997</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -810,10 +1032,29 @@
         <v>0.2</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0.90517415999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.88700657999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.90024786000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.90599911</v>
+      </c>
+      <c r="H18">
+        <v>0.89437657999999998</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.89856085800000007</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -824,10 +1065,29 @@
         <v>0.2</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>0.91142588999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.89323211999999996</v>
+      </c>
+      <c r="F19">
+        <v>0.90777246</v>
+      </c>
+      <c r="G19">
+        <v>0.90088973000000006</v>
+      </c>
+      <c r="H19">
+        <v>0.88066343999999996</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.89879672799999999</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -838,10 +1098,29 @@
         <v>0.2</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.89407468000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.90067456000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.89663815000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.90508619000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.89160976000000003</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.89761666800000006</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -849,13 +1128,32 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>30</v>
+        <v>0.4</v>
+      </c>
+      <c r="D21">
+        <v>0.89858689000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.89954727999999995</v>
+      </c>
+      <c r="F21">
+        <v>0.90788272999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.86252938999999995</v>
+      </c>
+      <c r="H21">
+        <v>0.90282472000000002</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.89427420199999985</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -863,13 +1161,32 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0.90119568000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.90138244999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.88191259</v>
+      </c>
+      <c r="G22">
+        <v>0.90243134999999997</v>
+      </c>
+      <c r="H22">
+        <v>0.89394912000000004</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.89617423800000007</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -877,13 +1194,32 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C23">
-        <v>0.2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.90164765000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.87657425</v>
+      </c>
+      <c r="F23">
+        <v>0.90666312000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.89448744000000002</v>
+      </c>
+      <c r="H23">
+        <v>0.89549139</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23" si="2">AVERAGE(D23:H23)</f>
+        <v>0.89497277000000008</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -894,10 +1230,29 @@
         <v>0.3</v>
       </c>
       <c r="C24">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.87173469000000003</v>
+      </c>
+      <c r="E24">
+        <v>0.86964427</v>
+      </c>
+      <c r="F24">
+        <v>0.88932387999999996</v>
+      </c>
+      <c r="G24">
+        <v>0.87491699000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.85223833999999998</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.87157163400000004</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -908,10 +1263,29 @@
         <v>0.3</v>
       </c>
       <c r="C25">
-        <v>0.4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>34</v>
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>0.86504888999999996</v>
+      </c>
+      <c r="E25">
+        <v>0.87611337</v>
+      </c>
+      <c r="F25">
+        <v>0.85468822</v>
+      </c>
+      <c r="G25">
+        <v>0.86997111000000005</v>
+      </c>
+      <c r="H25">
+        <v>0.86676973000000002</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.86651826399999998</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,10 +1296,29 @@
         <v>0.3</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>35</v>
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>0.86985265000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.84812177</v>
+      </c>
+      <c r="F26">
+        <v>0.85075710999999998</v>
+      </c>
+      <c r="G26">
+        <v>0.86373495</v>
+      </c>
+      <c r="H26">
+        <v>0.86971752999999996</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0.86043680199999995</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -933,13 +1326,32 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>36</v>
+        <v>0.3</v>
+      </c>
+      <c r="D27">
+        <v>0.87338042000000005</v>
+      </c>
+      <c r="E27">
+        <v>0.84614535999999996</v>
+      </c>
+      <c r="F27">
+        <v>0.85489011999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.86978107999999998</v>
+      </c>
+      <c r="H27">
+        <v>0.84530567999999995</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.85790053200000005</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,13 +1359,32 @@
         <v>1</v>
       </c>
       <c r="B28">
+        <v>0.3</v>
+      </c>
+      <c r="C28">
         <v>0.4</v>
       </c>
-      <c r="C28">
-        <v>0.1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>37</v>
+      <c r="D28">
+        <v>0.86467221000000005</v>
+      </c>
+      <c r="E28">
+        <v>0.85609873999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.86854087999999996</v>
+      </c>
+      <c r="G28">
+        <v>0.87607900000000005</v>
+      </c>
+      <c r="H28">
+        <v>0.85428694999999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.86393555599999983</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -961,13 +1392,32 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>38</v>
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>0.86213921999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.84827794999999995</v>
+      </c>
+      <c r="F29">
+        <v>0.86290135999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.88047153</v>
+      </c>
+      <c r="H29">
+        <v>0.86844628999999995</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0.86444726999999999</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -975,13 +1425,32 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.85942529000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.85719878999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.87771566999999995</v>
+      </c>
+      <c r="G30">
+        <v>0.86857176999999997</v>
+      </c>
+      <c r="H30">
+        <v>0.87408410000000003</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.86739912399999997</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -992,10 +1461,29 @@
         <v>0.4</v>
       </c>
       <c r="C31">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.85263553000000003</v>
+      </c>
+      <c r="E31">
+        <v>0.84340375999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.81451898</v>
+      </c>
+      <c r="G31">
+        <v>0.85866516999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.83367177999999997</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.84057904400000005</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1006,10 +1494,29 @@
         <v>0.4</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
-      </c>
-      <c r="J32" t="s">
-        <v>41</v>
+        <v>0.1</v>
+      </c>
+      <c r="D32">
+        <v>0.84394564999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.83340868999999995</v>
+      </c>
+      <c r="F32">
+        <v>0.83926564000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.80485337000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.84124244999999997</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0.83254315999999995</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1017,13 +1524,32 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>42</v>
+        <v>0.2</v>
+      </c>
+      <c r="D33">
+        <v>0.80440361000000005</v>
+      </c>
+      <c r="E33">
+        <v>0.83172765999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.81546266000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.83883079999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.84992579000000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0.82807010400000003</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1031,13 +1557,32 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>43</v>
+        <v>0.3</v>
+      </c>
+      <c r="D34">
+        <v>0.81567676</v>
+      </c>
+      <c r="E34">
+        <v>0.84384035000000002</v>
+      </c>
+      <c r="F34">
+        <v>0.83649768999999996</v>
+      </c>
+      <c r="G34">
+        <v>0.81574636</v>
+      </c>
+      <c r="H34">
+        <v>0.82829905999999998</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0.82801204399999995</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1045,13 +1590,32 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>44</v>
+        <v>0.4</v>
+      </c>
+      <c r="D35">
+        <v>0.83500781999999996</v>
+      </c>
+      <c r="E35">
+        <v>0.80803133999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.84139554999999999</v>
+      </c>
+      <c r="G35">
+        <v>0.83780363000000002</v>
+      </c>
+      <c r="H35">
+        <v>0.80852778999999997</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.82615322600000007</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1059,13 +1623,32 @@
         <v>1</v>
       </c>
       <c r="B36">
+        <v>0.4</v>
+      </c>
+      <c r="C36">
         <v>0.5</v>
       </c>
-      <c r="C36">
-        <v>0.3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>45</v>
+      <c r="D36">
+        <v>0.84094248999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.84059658999999998</v>
+      </c>
+      <c r="F36">
+        <v>0.83812750000000003</v>
+      </c>
+      <c r="G36">
+        <v>0.82530656999999996</v>
+      </c>
+      <c r="H36">
+        <v>0.84293530000000005</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0.83758169000000005</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,13 +1656,32 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C37">
-        <v>0.4</v>
-      </c>
-      <c r="J37" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.83912741000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.84060140000000005</v>
+      </c>
+      <c r="F37">
+        <v>0.85264428999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.84875151000000004</v>
+      </c>
+      <c r="H37">
+        <v>0.82465911999999997</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37" si="3">AVERAGE(D37:H37)</f>
+        <v>0.84115674600000001</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,10 +1692,392 @@
         <v>0.5</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.81428078000000004</v>
+      </c>
+      <c r="E38">
+        <v>0.80043235999999995</v>
+      </c>
+      <c r="F38">
+        <v>0.80489027999999996</v>
+      </c>
+      <c r="G38">
+        <v>0.80995689999999998</v>
+      </c>
+      <c r="H38">
+        <v>0.81997812000000003</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0.80990768800000001</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
         <v>0.5</v>
       </c>
-      <c r="J38" t="s">
-        <v>47</v>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+      <c r="D39">
+        <v>0.80727366</v>
+      </c>
+      <c r="E39">
+        <v>0.81281314999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.83404736000000002</v>
+      </c>
+      <c r="G39">
+        <v>0.81795046000000005</v>
+      </c>
+      <c r="H39">
+        <v>0.80998831999999998</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0.81641459000000016</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40">
+        <v>0.82082765000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.80258419000000003</v>
+      </c>
+      <c r="F40">
+        <v>0.79769535999999996</v>
+      </c>
+      <c r="G40">
+        <v>0.80126312</v>
+      </c>
+      <c r="H40">
+        <v>0.79093813999999996</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0.80266169200000004</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>0.3</v>
+      </c>
+      <c r="D41">
+        <v>0.81225232000000003</v>
+      </c>
+      <c r="E41">
+        <v>0.80216443000000004</v>
+      </c>
+      <c r="F41">
+        <v>0.80537040000000004</v>
+      </c>
+      <c r="G41">
+        <v>0.81288700999999997</v>
+      </c>
+      <c r="H41">
+        <v>0.79156817000000002</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0.80484846599999993</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>0.4</v>
+      </c>
+      <c r="D42">
+        <v>0.80088780999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.82029235</v>
+      </c>
+      <c r="F42">
+        <v>0.82965750000000005</v>
+      </c>
+      <c r="G42">
+        <v>0.81138211000000005</v>
+      </c>
+      <c r="H42">
+        <v>0.82527428999999997</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0.81749881199999996</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>0.77651086999999996</v>
+      </c>
+      <c r="E43">
+        <v>0.82593996999999997</v>
+      </c>
+      <c r="F43">
+        <v>0.81374247</v>
+      </c>
+      <c r="G43">
+        <v>0.77785234999999997</v>
+      </c>
+      <c r="H43">
+        <v>0.80376062999999998</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0.799561258</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.80958264999999996</v>
+      </c>
+      <c r="E44">
+        <v>0.81315419</v>
+      </c>
+      <c r="F44">
+        <v>0.80329435000000005</v>
+      </c>
+      <c r="G44">
+        <v>0.80302127000000001</v>
+      </c>
+      <c r="H44">
+        <v>0.80979190999999995</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>0.80776887399999997</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0.6</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.79110926999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.77944303999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.78488055000000001</v>
+      </c>
+      <c r="G45">
+        <v>0.76225394999999996</v>
+      </c>
+      <c r="H45">
+        <v>0.81169331</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45" si="4">AVERAGE(D45:H45)</f>
+        <v>0.78587602400000001</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0.7</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.76353651</v>
+      </c>
+      <c r="E46">
+        <v>0.75145194999999998</v>
+      </c>
+      <c r="F46">
+        <v>0.77093665</v>
+      </c>
+      <c r="G46">
+        <v>0.75665417999999995</v>
+      </c>
+      <c r="H46">
+        <v>0.78470786999999997</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:I49" si="5">AVERAGE(D46:H46)</f>
+        <v>0.76545743200000005</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.8</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.74619944999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.74474094000000002</v>
+      </c>
+      <c r="F47">
+        <v>0.74795173999999998</v>
+      </c>
+      <c r="G47">
+        <v>0.74365685999999998</v>
+      </c>
+      <c r="H47">
+        <v>0.74180552</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>0.74487090199999995</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.9</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.70712960999999996</v>
+      </c>
+      <c r="E48">
+        <v>0.74179393000000005</v>
+      </c>
+      <c r="F48">
+        <v>0.72646502999999996</v>
+      </c>
+      <c r="G48">
+        <v>0.71481731000000004</v>
+      </c>
+      <c r="H48">
+        <v>0.72041856000000004</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>0.72212488799999996</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.73600527000000004</v>
+      </c>
+      <c r="E49">
+        <v>0.70796888999999996</v>
+      </c>
+      <c r="F49">
+        <v>0.74248002999999996</v>
+      </c>
+      <c r="G49">
+        <v>0.70367634000000001</v>
+      </c>
+      <c r="H49">
+        <v>0.67540407999999996</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>0.71310692199999992</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
